--- a/biology/Zoologie/Chardonneret/Chardonneret.xlsx
+++ b/biology/Zoologie/Chardonneret/Chardonneret.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chardonneret est un nom vernaculaire ambigu en français, pouvant désigner plusieurs espèces différentes d'oiseaux passériformes  de la famille des Fringillidae.
-Ils sont réputés pour leur plumage ou la beauté de leurs chants[1].
-Le nom de chardonneret dérive de "chardon", cette petite plante hérissée de piquants qui pousse le long des chemins. Selon certains auteurs, ce nom a été donné à ces oiseaux parce qu'ils se nourrissent des graines de chardon[1]. Cependant, l'explication de la fréquentation des chardons par ces oiseaux pourrait avoir une autre origine. Dans leurs déplacements, les moutons se frottent contre les chardons et y accrochent quelques flocons de laine. Alors, le chardonneret vient prendre le flocon, l'effiloche pour le démêler et en capitonne le nid de ses petits, parfois nommés grisets.
-Il existe de nombreuses formes locales de ce terme par exemple chardonnerel ou chardonnail, en Provence il existe par exemple cardalino. On y retrouve plus facilement la proximité avec le latin impérial carduelis dérivé de carduus, le chardon[1].
+Ils sont réputés pour leur plumage ou la beauté de leurs chants.
+Le nom de chardonneret dérive de "chardon", cette petite plante hérissée de piquants qui pousse le long des chemins. Selon certains auteurs, ce nom a été donné à ces oiseaux parce qu'ils se nourrissent des graines de chardon. Cependant, l'explication de la fréquentation des chardons par ces oiseaux pourrait avoir une autre origine. Dans leurs déplacements, les moutons se frottent contre les chardons et y accrochent quelques flocons de laine. Alors, le chardonneret vient prendre le flocon, l'effiloche pour le démêler et en capitonne le nid de ses petits, parfois nommés grisets.
+Il existe de nombreuses formes locales de ce terme par exemple chardonnerel ou chardonnail, en Provence il existe par exemple cardalino. On y retrouve plus facilement la proximité avec le latin impérial carduelis dérivé de carduus, le chardon.
 </t>
         </is>
       </c>
@@ -514,9 +526,11 @@
           <t>Menaces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2016, en dix ans, la population de chardonnerets en France a chuté de 40 %[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2016, en dix ans, la population de chardonnerets en France a chuté de 40 %.
 </t>
         </is>
       </c>
@@ -547,8 +561,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Noms normalisés
-Liste alphabétique des noms normalisés de la CINFO (màj 2009) et Avibase, en regard du nom scientifique valide reconnu par la classification de référence (version 2.7, 2010) du Congrès ornithologique international.
+          <t>Noms normalisés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Liste alphabétique des noms normalisés de la CINFO (màj 2009) et Avibase, en regard du nom scientifique valide reconnu par la classification de référence (version 2.7, 2010) du Congrès ornithologique international.
 Chardonneret à bec épais – Spinus crassirostris
 Chardonneret à croupion jaune – Spinus uropygialis
 Chardonneret à menton noir – Spinus barbata
@@ -565,12 +584,7 @@
 Chardonneret noir – Spinus atrata
 Chardonneret olivâtre – Spinus olivacea
 Chardonneret rouge – Spinus cucullata
-Chardonneret safran – Spinus siemiradzkii
-Noms divers
-Liste alphabétique des noms vernaculaires ou des noms vulgaires, non retenus par la CINFO, dont l’usage est attesté[3]. 
-Note : Cette liste est variable selon les usages et certaines espèces ont parfois d'autres noms encore.
-Chardonneret - sans autre précision, voir Chardonneret élégant[4]
-Chardonneret d'Europe - voir Chardonneret élégant[5]</t>
+Chardonneret safran – Spinus siemiradzkii</t>
         </is>
       </c>
     </row>
@@ -595,10 +609,51 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Noms en français et noms scientifiques correspondants</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Noms divers</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Liste alphabétique des noms vernaculaires ou des noms vulgaires, non retenus par la CINFO, dont l’usage est attesté. 
+Note : Cette liste est variable selon les usages et certaines espèces ont parfois d'autres noms encore.
+Chardonneret - sans autre précision, voir Chardonneret élégant
+Chardonneret d'Europe - voir Chardonneret élégant</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Chardonneret</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chardonneret</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Dans l'art</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Le chardonneret d'Europe, dit aussi chardonneret élégant, apparaît dans de nombreuses œuvres d'art, religieuses (en tant que symbole de la Passion du Christ) ou profanes :
 Vierge au chardonneret ;
